--- a/data/trans_bre/P9_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_3-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>-4,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>-5,49%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 10,61</t>
+          <t>-23,54; 20,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 18,75</t>
+          <t>-25,81; 20,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 20,77</t>
+          <t>-31,83; 41,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 42,65</t>
+          <t>-33,97; 42,08</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>17,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>18,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>40,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>45,06%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 28,62</t>
+          <t>-6,92; 41,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 27,05</t>
+          <t>-6,59; 44,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 78,03</t>
+          <t>-10,93; 159,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 78,39</t>
+          <t>-12,09; 196,06</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>8,85%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 22,02</t>
+          <t>-10,34; 20,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 20,85</t>
+          <t>-8,99; 20,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 43,61</t>
+          <t>-14,15; 37,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 39,83</t>
+          <t>-12,26; 39,19</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>4,77%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 5,65</t>
+          <t>-11,47; 16,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 6,93</t>
+          <t>-10,37; 16,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 10,0</t>
+          <t>-16,82; 30,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 11,66</t>
+          <t>-15,36; 32,84</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,57%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,66%</t>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 5,65</t>
+          <t>-18,51; 16,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 7,62</t>
+          <t>-17,12; 18,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 12,08</t>
+          <t>-30,15; 38,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,55; 17,31</t>
+          <t>-28,69; 45,45</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-13,95</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>-13,34</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,16%</t>
+          <t>-34,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-17,45%</t>
+          <t>-33,69%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 6,27</t>
+          <t>-33,32; 4,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,01; 8,78</t>
+          <t>-32,8; 5,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,07; 26,54</t>
+          <t>-66,19; 20,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,91; 33,71</t>
+          <t>-66,05; 22,27</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 4,75</t>
+          <t>-4,07; 12,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 6,51</t>
+          <t>-3,62; 13,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 9,16</t>
+          <t>-6,86; 24,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 12,91</t>
+          <t>-6,35; 27,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P9_3-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,03</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,69%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,49%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.025998222788695</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3899975705833114</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.04687329120644371</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.006324296589902336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,54; 20,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-25,81; 20,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-31,83; 41,26</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-33,97; 42,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-23.53586287451168</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-21.66808930386662</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.318314402345263</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2950461404301645</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>20.51904453891215</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>25.27765496091214</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.4126258810876589</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5592296286896374</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>17,64</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>18,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>40,71%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>45,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,92; 41,39</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 44,04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,93; 159,15</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,09; 196,06</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>17.64376175258917</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>14.60214182874474</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.4071144311382637</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3198659015352857</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,63</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,79</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,09%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,85%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.918870315037704</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-11.57165957071847</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1093209364250868</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1829159547348228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,34; 20,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,99; 20,93</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-14,15; 37,92</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,26; 39,19</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>41.38895479483578</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>40.32779360557502</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.591470037166925</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.499387977625509</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,89%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,77%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.634240003072476</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.756494246645435</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.07093233257688535</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.02602988736191073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,47; 16,25</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-10,37; 16,88</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-16,82; 30,17</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-15,36; 32,84</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.33503456697409</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.49929312059122</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1415228665686487</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1636066913688854</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.38469978952138</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.97315011834563</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.3792366246957393</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.3171199168882585</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,45%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-18,51; 16,42</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-17,12; 18,81</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-30,15; 38,29</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-28,69; 45,45</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.379115283056221</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.211588481959684</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.03894153339144978</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.08989974581929559</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-13,95</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-13,34</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-34,8%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-33,69%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-11.47430538607832</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-9.298690172047383</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1682172560960081</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.141984783390229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-33,32; 4,8</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-32,8; 5,17</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-66,19; 20,98</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-66,05; 22,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.25316676010411</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.98913089872255</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3017140426617398</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3986029644556163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,39%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>7,98%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.2360226430318191</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.27347679537564</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.004473715045230857</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.04462944229684245</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 12,47</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 13,25</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; 24,92</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 27,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-18.51153365715248</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-16.64251610553898</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.3014602534043465</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.2673843315957552</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>16.41967851541089</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>19.63453671981613</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.3828935712099517</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.5001695656268097</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-13.95206935297946</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-14.12843662912433</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.3480098880356797</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.3461471223593705</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-33.31629959330915</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-34.65236654340556</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.6619056608532616</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.6759465777120938</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>4.797086281943454</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>5.556328822504828</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2098381549341608</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.2281719385231736</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3.516567152583605</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4.181358354236653</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.0639210610935867</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.07677432310825485</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.068034080074408</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.977318876307182</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.06858238118887298</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.06425116750088951</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>12.46747318570134</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>12.91168053461523</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.2492038974458898</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.2656345800384632</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
